--- a/TestsMaquettesFonctionnelles/Ambroise/maquette connexion.xlsx
+++ b/TestsMaquettesFonctionnelles/Ambroise/maquette connexion.xlsx
@@ -37,16 +37,61 @@
     <t xml:space="preserve">1,2,3</t>
   </si>
   <si>
-    <t xml:space="preserve">Saisie d'un login et mot de passe valides.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connexion réussie. Le système affiche le menu correspondant au profil (Visiteur ou Délégué) avec l'identité de l'utilisateur et sa région.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Saisie d'un login et mot de passe valides.
+Responsable de secteur ( login :loidid, mdp : LoiDid!)
+Visiteur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> ( login :villou, mdp : VilLou!)
+Délégué ( login :leclud, mdp : LecLud!)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Connexion réussie. Le système affiche le menu correspondant au profil (Visiteur ou Délégué) avec l'identité de l'utilisateur et sa région.
+Responsable de secteur n’affiche pas les menus saisir et consulter.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+Visiteur n’affiche pas les menus Nouveaux rapports et Historique et ne peux pas modifier les praticiens
+Délégué affiche tout les menus
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1, 3-a</t>
   </si>
   <si>
-    <t xml:space="preserve">Saisie d'un login ou mot de passe invalide.</t>
+    <t xml:space="preserve">Saisie d'un login ou mot de passe invalide.
+(mettez ce que vous voulez)</t>
   </si>
   <si>
     <t xml:space="preserve">Le système informe l'utilisateur que l'identifiant ou le mot de passe est incorrect et retourne au formulaire de connexion.</t>
@@ -69,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\,m\,yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,6 +143,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,17 +193,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -348,61 +407,61 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="122.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/TestsMaquettesFonctionnelles/Ambroise/maquette connexion.xlsx
+++ b/TestsMaquettesFonctionnelles/Ambroise/maquette connexion.xlsx
@@ -37,54 +37,17 @@
     <t xml:space="preserve">1,2,3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Saisie d'un login et mot de passe valides.
+    <t xml:space="preserve">Saisie d'un login et mot de passe valides.
 Responsable de secteur ( login :loidid, mdp : LoiDid!)
-Visiteur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> ( login :villou, mdp : VilLou!)
+Visiteur ( login :villou, mdp : VilLou!)
 Délégué ( login :leclud, mdp : LecLud!)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Connexion réussie. Le système affiche le menu correspondant au profil (Visiteur ou Délégué) avec l'identité de l'utilisateur et sa région.
+  </si>
+  <si>
+    <t xml:space="preserve">Connexion réussie. Le système affiche le menu correspondant au profil (Visiteur ou Délégué) avec l'identité de l'utilisateur et sa région.
 Responsable de secteur n’affiche pas les menus saisir et consulter.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">
-Visiteur n’affiche pas les menus Nouveaux rapports et Historique et ne peux pas modifier les praticiens
+Visiteur n’affiche pas les menus Nouveaux rapports et Historique et ne peut pas modifier les praticiens
 Délégué affiche tout les menus
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1, 3-a</t>
@@ -114,7 +77,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\,m\,yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -143,12 +106,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,13 +364,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="122.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.75"/>
   </cols>
@@ -432,7 +389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
